--- a/notebook/restos_a_pagar_2024.xlsx
+++ b/notebook/restos_a_pagar_2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>749</v>
+        <v>880</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1695</v>
+        <v>1917</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1395,958 +1395,6 @@
         <v>9344</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160129</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ESA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>160533</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4º CGCFEX</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CML</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4ª RM</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Três Corações</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0032</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ADMINISTRACAO DA UNIDADE</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>160073</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>DGO</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>171460</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>I3DAFUNADOM</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>ADMINISTRACAO DE OM</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>339030</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>MATERIAL DE CONSUMO</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>33903022</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2023NE002452</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>160129000012023NE002452</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>49577909000104</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>COMERCIAL RB - COMERCIO VAREJISTA E ATACADISTA LTDA</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>194</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>PREGAO</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>ORDINARIO</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>PRIMARIO DISCRICIONARIO</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>INICIAL (LOA)</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>000000000000</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>SEM EMENDA</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>52121</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>COMANDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>I3DA</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>FUN</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>ADOM</t>
-        </is>
-      </c>
-      <c r="AU5" t="n">
-        <v>6500</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6500</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160129</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ESA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>160533</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4º CGCFEX</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CML</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4ª RM</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Três Corações</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>6012</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>8965</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>CAPACITACAO PROFISSIONAL MILITAR DO E</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>160503</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DECEX/GESTOR</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>171423</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>C4ENMILCAPE</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>CAPACITACAO DE PESSOAL</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>339030</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>MATERIAL DE CONSUMO</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>33903022</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2023NE002715</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>45279</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>160129000012023NE002715</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>49577909000104</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>COMERCIAL RB - COMERCIO VAREJISTA E ATACADISTA LTDA</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC6" t="n">
-        <v>174</v>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>PREGAO</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>ORDINARIO</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>PRIMARIO DISCRICIONARIO</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>INICIAL (LOA)</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>000000000000</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>SEM EMENDA</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>52121</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>COMANDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>C4EN</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>CAPE</t>
-        </is>
-      </c>
-      <c r="AU6" t="n">
-        <v>1340.6</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>1340.6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160129</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ESA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>160533</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4º CGCFEX</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CML</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4ª RM</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Três Corações</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>6012</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>8965</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>CAPACITACAO PROFISSIONAL MILITAR DO E</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>160503</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>DECEX/GESTOR</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>171423</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>C1ENMILOUTR</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>339030</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>MATERIAL DE CONSUMO</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>33903022</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2023NE002716</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>45279</v>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>160129000012023NE002716</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>49577909000104</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>COMERCIAL RB - COMERCIO VAREJISTA E ATACADISTA LTDA</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC7" t="n">
-        <v>174</v>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>PREGAO</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>ORDINARIO</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>PRIMARIO DISCRICIONARIO</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>INICIAL (LOA)</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>000000000000</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>SEM EMENDA</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>52121</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>COMANDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>C1EN</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>OUTR</t>
-        </is>
-      </c>
-      <c r="AU7" t="n">
-        <v>308.9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>308.9</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160129</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ESA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>160533</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4º CGCFEX</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CML</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4ª RM</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Três Corações</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>6012</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>21A0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>APRESTAMENTO DAS FORCAS</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>160504</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>COEX/GESTOR</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>193910</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>E6RVSOLOUT4</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>REMONTA E VETERINÁRIA</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>339030</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>MATERIAL DE CONSUMO</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>33903024</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2023NE000647</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>45084</v>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>160129000012023NE000647</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>43928711000133</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>GARDEN MATERIAIS DE CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC8" t="n">
-        <v>369</v>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>DISPENSA DE LICITACAO</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>GLOBAL</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>PRIMARIO DISCRICIONARIO</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>INICIAL (LOA)</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>000G</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>000000000000</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>SEM EMENDA</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>52121</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>COMANDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>E6RV</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>SOL</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>OUT4</t>
-        </is>
-      </c>
-      <c r="AU8" t="n">
-        <v>155</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>155</v>
-      </c>
-      <c r="AX8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/notebook/restos_a_pagar_2024.xlsx
+++ b/notebook/restos_a_pagar_2024.xlsx
@@ -686,7 +686,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>880</v>
+        <v>961</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1917</v>
+        <v>2032</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>

--- a/notebook/restos_a_pagar_2024.xlsx
+++ b/notebook/restos_a_pagar_2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,32 +445,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NOME_UG</t>
+          <t>SIGLA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ICFEX</t>
+          <t>CGCFEX</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>NOME_ICFEX</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>T_COMANDO</t>
+          <t>COMANDO</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>T_RM</t>
+          <t>CIDADE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>T_CIDADE</t>
+          <t>UF</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ACAO</t>
+          <t>AÇÃO</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -510,157 +510,157 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>RADICAL_4_PI</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MEIO_3_PI</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SUFIXO_4_PI</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>NOME_PI</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ND</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>NOME_ND</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>NDSI</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>NOME_NDSI</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ANO</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>DATA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CHAVE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>FAV</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>NOME_CREDOR</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>UF_FAV</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>TIPO</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>DIAS</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>UF_UG</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>FONTE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>MOD_LIC</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>TIPO_NE</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>RP</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>NOME_RP</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>TIPO_CREDITO</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>NOME_TIPO_CREDITO</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>PO</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>AUTOR_EMENDA</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>NOME_AUTOR_EMENDA</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>LOCAL</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>NOME_UO</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>UO</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>NOME_UO</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>RADPI4</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>MEIPI3</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>SUFPI4</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -686,7 +686,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>961</v>
+        <v>1071</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -700,12 +700,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>160533</t>
+          <t>4º CGCFEx</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4º CGCFEX</t>
+          <t>4ª RM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4ª RM</t>
+          <t>Três Corações</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Três Corações</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -760,153 +760,153 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>C1EN</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>CON</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>DETM</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>CONCURSOS AS ESCOLAS MILITARES</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>449052</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>44905212</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>APARELHOS E UTENSILIOS DOMESTICOS</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>2023NE001611</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="Z2" s="2" t="n">
         <v>45198</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>167129000012023NE001611</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>40426345000126</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>CITE ELETRODOMESTICOS LTDA</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>RPNP</t>
         </is>
       </c>
-      <c r="AC2" t="n">
-        <v>280</v>
-      </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="n">
+        <v>312</v>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>1050000142</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>PREGAO</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>ORDINARIO</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>PRIMARIO DISCRICIONARIO</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>INICIAL (LOA)</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>000000000000</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>SEM EMENDA</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>FUNDO DO EXERCITO</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>52921</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>FUNDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>C1EN</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>DETM</t>
         </is>
       </c>
       <c r="AU2" t="n">
@@ -924,11 +924,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>296</v>
+        <v>2274</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160129</t>
+          <t>167129</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>160533</t>
+          <t>4º CGCFEx</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4º CGCFEX</t>
+          <t>4ª RM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -953,448 +953,210 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4ª RM</t>
+          <t>Três Corações</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Três Corações</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6012</t>
+          <t>0032</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20XE</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>MANUTENCAO E MODERNIZACAO DE SISTEMAS</t>
+          <t>ASSISTENCIA MEDICA E ODONTOLOGICA AOS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>160035</t>
+          <t>167505</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DCT - GESTOR</t>
+          <t>DGP</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>204334</t>
+          <t>215846</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>K9CCMSIINFO</t>
+          <t>D5SAFUSASOC</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>MNT DE SISTEMAS DE INFORMACãO E COMUNICACãO</t>
+          <t>D5SA</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>FUS</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>ASOC</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>ASSISTENCIA SOCIAL</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>449052</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>44905206</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>APARELHOS E EQUIPAMENTOS DE COMUNICACAO</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2023NE002175</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>44905212</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>APARELHOS E UTENSILIOS DOMESTICOS</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2023NE001892</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="W3" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>160129000012023NE002175</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>14491768000110</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>R3S TELECOMUNICACOES LTDA</t>
-        </is>
+      <c r="Z3" s="2" t="n">
+        <v>45260</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>167129000012023NE001892</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
+          <t>40426345000126</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>CITE ELETRODOMESTICOS LTDA</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>RPNP</t>
         </is>
       </c>
-      <c r="AC3" t="n">
-        <v>225</v>
-      </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>1005000142</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>PREGAO</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>ORDINARIO</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>PRIMARIO DISCRICIONARIO</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
+          <t>GLOBAL</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>PRIMARIO OBRIGATORIO</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>INICIAL (LOA)</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>000E</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>000000000000</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>SEM EMENDA</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>52121</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>COMANDO DO EXERCITO</t>
-        </is>
-      </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>K9CC</t>
+          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>FUNDO DO EXERCITO</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>52921</t>
         </is>
       </c>
       <c r="AU3" t="n">
-        <v>9514</v>
+        <v>9344</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>9514</v>
+        <v>9344</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>167129</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ESA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>160533</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4º CGCFEX</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CML</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4ª RM</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Três Corações</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0032</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ASSISTENCIA MEDICA E ODONTOLOGICA AOS</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>167505</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DGP</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>215846</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>D5SAFUSASOC</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>ASSISTENCIA SOCIAL</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>449052</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>44905212</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>APARELHOS E UTENSILIOS DOMESTICOS</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>2023NE001892</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>167129000012023NE001892</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>40426345000126</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>CITE ELETRODOMESTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>218</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>1005000142</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>PREGAO</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>GLOBAL</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>PRIMARIO OBRIGATORIO</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>INICIAL (LOA)</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0008</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>000000000000</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>SEM EMENDA</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>52921</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>FUNDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>D5SA</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>FUS</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>ASOC</t>
-        </is>
-      </c>
-      <c r="AU4" t="n">
-        <v>9344</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>9344</v>
-      </c>
-      <c r="AX4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/notebook/restos_a_pagar_2024.xlsx
+++ b/notebook/restos_a_pagar_2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="AF2" t="n">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -919,244 +919,6 @@
         <v>14016</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2274</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>167129</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ESA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4º CGCFEx</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4ª RM</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CML</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Três Corações</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0032</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>ASSISTENCIA MEDICA E ODONTOLOGICA AOS</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>167505</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>DGP</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>215846</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>D5SAFUSASOC</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>D5SA</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>FUS</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>ASOC</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>ASSISTENCIA SOCIAL</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>449052</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>44905212</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>APARELHOS E UTENSILIOS DOMESTICOS</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>2023NE001892</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>167129000012023NE001892</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>40426345000126</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>CITE ELETRODOMESTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AF3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>1005000142</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>PREGAO</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>GLOBAL</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>PRIMARIO OBRIGATORIO</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>INICIAL (LOA)</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0008</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>000000000000</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>SEM EMENDA</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>FUNDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>52921</t>
-        </is>
-      </c>
-      <c r="AU3" t="n">
-        <v>9344</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>9344</v>
-      </c>
-      <c r="AX3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/notebook/restos_a_pagar_2024.xlsx
+++ b/notebook/restos_a_pagar_2024.xlsx
@@ -686,7 +686,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1150</v>
+        <v>1256</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="AF2" t="n">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>

--- a/notebook/restos_a_pagar_2024.xlsx
+++ b/notebook/restos_a_pagar_2024.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX2"/>
+  <dimension ref="B1:AX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,244 +680,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1256</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>167129</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ESA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4º CGCFEx</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4ª RM</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CML</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Três Corações</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0032</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ADMINISTRACAO DA UNIDADE</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>DECEX - GESTOR</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>171502</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>C1ENCONDETM</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>C1EN</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>DETM</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>CONCURSOS AS ESCOLAS MILITARES</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>449052</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>EQUIPAMENTOS E MATERIAL PERMANENTE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>44905212</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>APARELHOS E UTENSILIOS DOMESTICOS</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2023NE001611</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>45198</v>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>167129000012023NE001611</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>40426345000126</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>CITE ELETRODOMESTICOS LTDA</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>RPNP</t>
-        </is>
-      </c>
-      <c r="AF2" t="n">
-        <v>357</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>1050000142</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>PREGAO</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>ORDINARIO</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>PRIMARIO DISCRICIONARIO</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>INICIAL (LOA)</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>000000000000</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>SEM EMENDA</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRES CORACOES - MG</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>FUNDO DO EXERCITO</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>52921</t>
-        </is>
-      </c>
-      <c r="AU2" t="n">
-        <v>14016</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>14016</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
